--- a/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F896A75-619B-4C77-A26A-78A176728DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E09A4-2F99-4098-8F6B-2ABEC8C4B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +203,15 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2317,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2663,12 +2664,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A44" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2831,7 +2832,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2841,7 +2842,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.5</v>
+        <v>53</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3818,9 +3819,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>4</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3830,10 +3835,12 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="49"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -3846,42 +3853,62 @@
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="49">
+        <v>44943</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="A60" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39">
+        <v>1</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="49">
+        <v>44970</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>44986</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -3897,7 +3924,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45017</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3913,7 +3942,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45047</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -3929,7 +3960,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45078</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -3945,7 +3978,9 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45108</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -3961,7 +3996,9 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45139</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -3977,7 +4014,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45170</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -3993,7 +4032,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45200</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4009,7 +4050,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45231</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4025,7 +4068,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>45261</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4041,7 +4086,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45292</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4057,7 +4104,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45323</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4073,7 +4122,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45352</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4089,7 +4140,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45383</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4105,7 +4158,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45413</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4121,7 +4176,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>45444</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4137,7 +4194,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>45474</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4153,7 +4212,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45505</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4169,7 +4230,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45536</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4185,7 +4248,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45566</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4201,7 +4266,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45597</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4217,7 +4284,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45627</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4233,7 +4302,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45658</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4249,7 +4320,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45689</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4265,7 +4338,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45717</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4281,7 +4356,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45748</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4297,7 +4374,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45778</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4313,7 +4392,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45809</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4329,7 +4410,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45839</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4345,7 +4428,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45870</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4361,7 +4446,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45901</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4377,7 +4464,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45931</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4393,7 +4482,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45962</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4409,7 +4500,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45992</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4425,7 +4518,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>46023</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4441,7 +4536,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>46054</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4457,7 +4554,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>46082</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4473,7 +4572,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>46113</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4489,7 +4590,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>46143</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4505,7 +4608,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>46174</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4521,7 +4626,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>46204</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4537,7 +4644,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>46235</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4553,7 +4662,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>46266</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4569,7 +4680,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>46296</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4585,7 +4698,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>46327</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4601,7 +4716,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>46357</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4617,7 +4734,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>46388</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4633,7 +4752,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>46419</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4649,7 +4770,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>46447</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4665,7 +4788,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>46478</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4681,7 +4806,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>46508</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -4697,7 +4824,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>46539</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -4713,7 +4842,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>46569</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -4729,7 +4860,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>46600</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -4745,7 +4878,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>46631</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -4761,7 +4896,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>46661</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -4777,7 +4914,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>46692</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -4793,7 +4932,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>46722</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -4809,7 +4950,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>46753</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -4825,7 +4968,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46784</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -4841,7 +4986,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46813</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4857,7 +5004,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46844</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -4873,7 +5022,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>46874</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -4889,7 +5040,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46905</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -4905,7 +5058,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46935</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -4921,7 +5076,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>46966</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4937,7 +5094,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46997</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -4953,7 +5112,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>47027</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -4969,7 +5130,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>47058</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -4985,7 +5148,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>47088</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5049,20 +5214,52 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5078,7 +5275,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -5095,8 +5292,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                                  OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9E09A4-2F99-4098-8F6B-2ABEC8C4B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F747F-3DFA-42C9-AB8A-7CC8C10B7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2669,7 +2669,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39</v>
+        <v>40.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2842,7 +2842,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53</v>
+        <v>54.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3909,19 +3909,25 @@
       <c r="A61" s="40">
         <v>44986</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="B61" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">

--- a/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F747F-3DFA-42C9-AB8A-7CC8C10B7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD616CE-F2B2-4318-9337-333D0EA1BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2667,9 +2667,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.25</v>
+        <v>42.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2842,7 +2842,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.25</v>
+        <v>56.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3934,13 +3934,15 @@
         <v>45017</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -3951,19 +3953,25 @@
       <c r="A63" s="40">
         <v>45047</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="49">
+        <v>45076</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">

--- a/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD616CE-F2B2-4318-9337-333D0EA1BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998ACAF2-E766-49B7-ADC9-9BB285BE30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2300,7 +2300,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2667,9 +2667,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.75</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2842,7 +2842,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.75</v>
+        <v>58</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3977,19 +3977,27 @@
       <c r="A64" s="40">
         <v>45078</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="39"/>
+      <c r="B64" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">

--- a/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
+++ b/REGULAR/TREASURY/MIRANDA, NICOLE MAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998ACAF2-E766-49B7-ADC9-9BB285BE30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1934F12-B933-41E0-8F95-0D921F6F0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2669,7 +2669,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,7 +2832,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4003,9 +4003,13 @@
       <c r="A65" s="40">
         <v>45108</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -4015,7 +4019,9 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
